--- a/OldMutual/Output/RemittanceMatchStatus.xlsx
+++ b/OldMutual/Output/RemittanceMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{611C5450-08FF-4063-BB86-33EA2CB7A136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E9354763-66EA-4120-A040-657172CC367C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C0B57A04-8C7A-495E-9519-714FAF569B19}"/>
   </bookViews>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
-    <pivotCache cacheId="24" r:id="rId6"/>
-    <pivotCache cacheId="26" r:id="rId7"/>
-    <pivotCache cacheId="28" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7498,7 +7498,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.853678819447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.598770486111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="InvoiceMatched"/>
   </cacheSource>
@@ -7567,7 +7567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.853678935186" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.598770486111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="PartiallyPaid"/>
   </cacheSource>
@@ -7639,7 +7639,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.853679050924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59877060185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="FullyPaid"/>
   </cacheSource>
@@ -7708,7 +7708,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.853679282409" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59877060185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1000000" sheet="InvoiceNotMatched"/>
   </cacheSource>
@@ -25718,7 +25718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7BEB309D-5E72-49D0-92E8-3C5618A691C7}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7BEB309D-5E72-49D0-92E8-3C5618A691C7}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="S1:S2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -25760,7 +25760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B5CF1D0-45DC-443E-B71E-E3F467BAF5F6}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B5CF1D0-45DC-443E-B71E-E3F467BAF5F6}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="T1:U2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -25813,7 +25813,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{329AB746-32B2-4303-B8B1-B30263724C64}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{329AB746-32B2-4303-B8B1-B30263724C64}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:W2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -25867,7 +25867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{401AA5DB-02AF-4794-9978-908FF02F2913}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{401AA5DB-02AF-4794-9978-908FF02F2913}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="U1:V2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>

--- a/OldMutual/Output/RemittanceMatchStatus.xlsx
+++ b/OldMutual/Output/RemittanceMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{E9354763-66EA-4120-A040-657172CC367C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{3837362E-8E37-4612-A53C-7A2444FFE87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C0B57A04-8C7A-495E-9519-714FAF569B19}"/>
   </bookViews>
@@ -7498,7 +7498,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.598770486111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619081944445" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="InvoiceMatched"/>
   </cacheSource>
@@ -7567,7 +7567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.598770486111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="PartiallyPaid"/>
   </cacheSource>
@@ -7639,7 +7639,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59877060185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="FullyPaid"/>
   </cacheSource>
@@ -7708,7 +7708,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45283.59877060185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1000000" sheet="InvoiceNotMatched"/>
   </cacheSource>

--- a/OldMutual/Output/RemittanceMatchStatus.xlsx
+++ b/OldMutual/Output/RemittanceMatchStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{3837362E-8E37-4612-A53C-7A2444FFE87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{0CADA74D-9870-437F-8004-C1E936E96E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C0B57A04-8C7A-495E-9519-714FAF569B19}"/>
   </bookViews>
@@ -7498,7 +7498,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619081944445" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.629605092596" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="234" xr:uid="{F5A7D2B9-FA2E-432F-83CC-69D1F8DBD745}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="InvoiceMatched"/>
   </cacheSource>
@@ -7567,7 +7567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.629605208334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="123" xr:uid="{1FED8EEC-E797-4D65-9FDA-E664F4E7F757}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S100000" sheet="PartiallyPaid"/>
   </cacheSource>
@@ -7639,7 +7639,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.629605208334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{B562C809-E6FC-43FF-AC45-8C6D3DAD3F2D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1000000" sheet="FullyPaid"/>
   </cacheSource>
@@ -7708,7 +7708,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45289.619082175923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45295.629605208334" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="468" xr:uid="{0F5DE198-D59D-43EE-8FE2-3D2421C6A649}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1000000" sheet="InvoiceNotMatched"/>
   </cacheSource>
